--- a/Excel/ExponentialSmoothing.xlsx
+++ b/Excel/ExponentialSmoothing.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
     <sheet name="Single Exponential Smoothing" sheetId="1" r:id="rId4"/>
-    <sheet name="Double Exponential Smoothing" sheetId="2" r:id="rId5"/>
+    <sheet name="Single Exponential Smoothing-1" sheetId="2" r:id="rId5"/>
+    <sheet name="Double Exponential Smoothing" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -306,7 +306,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -394,6 +394,9 @@
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -457,7 +460,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
+  <c:date1904 val="0"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -978,10 +981,10 @@
                   <c:v>28.794749</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54.995160</c:v>
+                  <c:v>29.933475</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.367822</c:v>
+                  <c:v>35.528430</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1144,10 +1147,10 @@
                   <c:v>83.749780</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60.531557</c:v>
+                  <c:v>85.593242</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95.948209</c:v>
+                  <c:v>93.787600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,7 +1266,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.0506062"/>
-          <c:y val="0.00668054"/>
+          <c:y val="0.00668053"/>
           <c:w val="0.9"/>
           <c:h val="0.0612758"/>
         </c:manualLayout>
@@ -1307,7 +1310,857 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
+  <c:date1904 val="0"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0440571"/>
+          <c:y val="0.0362758"/>
+          <c:w val="0.942033"/>
+          <c:h val="0.933086"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Value</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="50800" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="50800" cap="flat">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="400000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="16"/>
+              <c:pt idx="0">
+                <c:v>Untitled 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Untitled 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Untitled 3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Untitled 4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Untitled 5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Untitled 6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Untitled 7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>Untitled 8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>Untitled 9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>Untitled 10</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>Untitled 11</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>Untitled 12</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>Untitled 13</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>Untitled 14</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>Untitled 15</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>Untitled 16</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Single Exponential Smoothing-1'!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="1">
+                  <c:v>3.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75.000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88.000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Prediction</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="50800" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="50800" cap="flat">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="400000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="16"/>
+              <c:pt idx="0">
+                <c:v>Untitled 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Untitled 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Untitled 3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Untitled 4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Untitled 5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Untitled 6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Untitled 7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>Untitled 8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>Untitled 9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>Untitled 10</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>Untitled 11</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>Untitled 12</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>Untitled 13</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>Untitled 14</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>Untitled 15</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>Untitled 16</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Single Exponential Smoothing-1'!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="1">
+                  <c:v>3.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.250000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.625000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.812500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.406250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.703125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.851562</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.425781</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.212891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61.106445</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.553223</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.776611</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77.888306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Lower Band</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="50800" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:hueOff val="-461056"/>
+                  <a:satOff val="4338"/>
+                  <a:lumOff val="-10225"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="50800" cap="flat">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:hueOff val="-461056"/>
+                    <a:satOff val="4338"/>
+                    <a:lumOff val="-10225"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="400000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="16"/>
+              <c:pt idx="0">
+                <c:v>Untitled 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Untitled 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Untitled 3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Untitled 4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Untitled 5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Untitled 6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Untitled 7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>Untitled 8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>Untitled 9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>Untitled 10</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>Untitled 11</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>Untitled 12</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>Untitled 13</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>Untitled 14</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>Untitled 15</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>Untitled 16</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Single Exponential Smoothing-1'!$J$3:$J$18</c:f>
+              <c:numCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="2">
+                  <c:v>2.684781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.608512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.491485</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.557685</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.030109</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.486584</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.963474</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.012123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.031714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.144946</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.147205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.099117</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55.249855</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.848351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Upper Band</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="50800" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="FF2600"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="50800" cap="flat">
+                <a:solidFill>
+                  <a:srgbClr val="FF2600"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="400000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="16"/>
+              <c:pt idx="0">
+                <c:v>Untitled 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Untitled 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Untitled 3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Untitled 4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Untitled 5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Untitled 6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Untitled 7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>Untitled 8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>Untitled 9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>Untitled 10</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>Untitled 11</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>Untitled 12</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>Untitled 13</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>Untitled 14</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>Untitled 15</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>Untitled 16</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Single Exponential Smoothing-1'!$K$3:$K$18</c:f>
+              <c:numCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="2">
+                  <c:v>5.315219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.391488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.008515</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.692315</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.594891</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.325916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.442776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.691002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48.819849</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58.280836</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.065686</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.007329</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80.303367</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90.928260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="2094734552"/>
+        <c:axId val="2094734553"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2094734552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica Neue"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734553"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2094734553"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="B8B8B8"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica Neue"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25"/>
+        <c:minorUnit val="12.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0506062"/>
+          <c:y val="0.00668053"/>
+          <c:w val="0.9"/>
+          <c:h val="0.0612758"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -1347,7 +2200,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="72"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1519,7 +2372,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="72"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1692,7 +2545,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="72"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1834,10 +2687,10 @@
                   <c:v>60.715496</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>52.247739</c:v>
+                  <c:v>23.424669</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47.681366</c:v>
+                  <c:v>49.989428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1865,7 +2718,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="72"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2003,10 +2856,10 @@
                   <c:v>123.646530</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>58.615066</c:v>
+                  <c:v>87.438136</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114.532645</c:v>
+                  <c:v>112.224583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,7 +2976,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.0514621"/>
           <c:y val="0.00941785"/>
-          <c:w val="0.91067"/>
+          <c:w val="0.910669"/>
           <c:h val="0.0647499"/>
         </c:manualLayout>
       </c:layout>
@@ -2177,16 +3030,16 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
+      <xdr:rowOff>116839</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="2D Line Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="977899" y="4300473"/>
-        <a:ext cx="8216902" cy="4103117"/>
+        <a:off x="977900" y="4300473"/>
+        <a:ext cx="8216901" cy="4103117"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2203,6 +3056,41 @@
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>116839</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="2D Line Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="977900" y="4300473"/>
+        <a:ext cx="8216901" cy="4103117"/>
+      </xdr:xfrm>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>174220</xdr:colOff>
       <xdr:row>29</xdr:row>
@@ -2216,7 +3104,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4"/>
+        <xdr:cNvPr id="6" name="2D Line Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2452,7 +3340,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2482,7 +3369,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2508,7 +3394,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2534,7 +3419,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2560,7 +3444,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2586,7 +3469,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2612,7 +3494,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2638,7 +3519,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2664,7 +3544,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2690,7 +3569,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2741,7 +3619,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2767,7 +3644,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2793,7 +3669,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2819,7 +3694,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2845,7 +3719,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2871,7 +3744,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2897,7 +3769,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2923,7 +3794,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2949,7 +3819,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2975,7 +3844,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -3023,7 +3891,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -3053,7 +3920,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -3079,7 +3945,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -3105,7 +3970,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -3131,7 +3995,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -3157,7 +4020,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -3183,7 +4045,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -3209,7 +4070,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -3235,7 +4095,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -3261,7 +4120,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -3296,7 +4154,7 @@
     <col min="1" max="9" width="8.85156" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.1016" style="1" customWidth="1"/>
     <col min="11" max="13" width="8.85156" style="1" customWidth="1"/>
-    <col min="14" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.5" customHeight="1">
@@ -3975,23 +4833,23 @@
         <v>3134.187090919790</v>
       </c>
       <c r="G17" s="17">
-        <v>1415</v>
+        <v>14</v>
       </c>
       <c r="H17" s="14">
         <f>SQRT(F17/G17)</f>
-        <v>1.4882786060179</v>
+        <v>14.9623028472983</v>
       </c>
       <c r="I17" s="14">
         <f>SQRT(F17/G17)</f>
-        <v>1.4882786060179</v>
+        <v>14.9623028472983</v>
       </c>
       <c r="J17" s="17">
         <f>$C17-$F$2*$I17</f>
-        <v>54.9951603202947</v>
+        <v>29.9334752315132</v>
       </c>
       <c r="K17" s="17">
         <f>$C17+$F$2*$I17</f>
-        <v>60.5315567346813</v>
+        <v>85.5932418234628</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -4021,23 +4879,23 @@
         <v>3679.035349221670</v>
       </c>
       <c r="G18" s="17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="14">
         <f>SQRT(F18/G18)</f>
-        <v>16.8226846600326</v>
+        <v>15.6610671182217</v>
       </c>
       <c r="I18" s="14">
         <f>SQRT(F18/G18)</f>
-        <v>16.8226846600326</v>
+        <v>15.6610671182217</v>
       </c>
       <c r="J18" s="17">
         <f>$C18-$F$2*$I18</f>
-        <v>33.3678216488322</v>
+        <v>35.5284302766004</v>
       </c>
       <c r="K18" s="17">
         <f>$C18+$F$2*$I18</f>
-        <v>95.94820858415341</v>
+        <v>93.78759995638519</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -4118,22 +4976,853 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="9" width="8.85156" style="28" customWidth="1"/>
+    <col min="10" max="10" width="13.1016" style="28" customWidth="1"/>
+    <col min="11" max="13" width="8.85156" style="28" customWidth="1"/>
+    <col min="14" max="16384" width="8.85156" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.5" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" ht="14.5" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1.86</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" ht="14.5" customHeight="1">
+      <c r="A3" t="s" s="10">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="10">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" ht="14.5" customHeight="1">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13">
+        <f>B4</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" ht="14.5" customHeight="1">
+      <c r="A5" s="15">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="15">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16">
+        <f>(B5*B$21)+(1-$B$21)*C4</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="14">
+        <f>ABS(B5-C5)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <f>(B5-C5)^2</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
+        <f>SUM(E$4:E5)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="17">
+        <v>2</v>
+      </c>
+      <c r="H5" s="14">
+        <f>SQRT(F5/G5)</f>
+        <v>0.707106781186548</v>
+      </c>
+      <c r="I5" s="14">
+        <f>SQRT(F5/G5)</f>
+        <v>0.707106781186548</v>
+      </c>
+      <c r="J5" s="17">
+        <f>$C5-$F$2*$I5</f>
+        <v>2.68478138699302</v>
+      </c>
+      <c r="K5" s="17">
+        <f>$C5+$F$2*$I5</f>
+        <v>5.31521861300698</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" ht="14.5" customHeight="1">
+      <c r="A6" s="15">
+        <f>A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="15">
+        <v>9</v>
+      </c>
+      <c r="C6" s="16">
+        <f>(B6*B$21)+(1-$B$21)*C5</f>
+        <v>6.5</v>
+      </c>
+      <c r="D6" s="14">
+        <f>ABS(B6-C6)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="14">
+        <f>(B6-C6)^2</f>
+        <v>6.25</v>
+      </c>
+      <c r="F6" s="14">
+        <f>SUM(E$4:E6)</f>
+        <v>7.25</v>
+      </c>
+      <c r="G6" s="17">
+        <v>3</v>
+      </c>
+      <c r="H6" s="14">
+        <f>SQRT(F6/G6)</f>
+        <v>1.5545631755148</v>
+      </c>
+      <c r="I6" s="14">
+        <f>SQRT(F6/G6)</f>
+        <v>1.5545631755148</v>
+      </c>
+      <c r="J6" s="17">
+        <f>$C6-$F$2*$I6</f>
+        <v>3.60851249354247</v>
+      </c>
+      <c r="K6" s="17">
+        <f>$C6+$F$2*$I6</f>
+        <v>9.39148750645753</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" ht="14.5" customHeight="1">
+      <c r="A7" s="15">
+        <f>A6+1</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="15">
+        <v>20</v>
+      </c>
+      <c r="C7" s="16">
+        <f>(B7*B$21)+(1-$B$21)*C6</f>
+        <v>13.25</v>
+      </c>
+      <c r="D7" s="14">
+        <f>ABS(B7-C7)</f>
+        <v>6.75</v>
+      </c>
+      <c r="E7" s="14">
+        <f>(B7-C7)^2</f>
+        <v>45.5625</v>
+      </c>
+      <c r="F7" s="14">
+        <f>SUM(E$4:E7)</f>
+        <v>52.8125</v>
+      </c>
+      <c r="G7" s="17">
+        <v>4</v>
+      </c>
+      <c r="H7" s="14">
+        <f>SQRT(F7/G7)</f>
+        <v>3.63361046343716</v>
+      </c>
+      <c r="I7" s="14">
+        <f>SQRT(F7/G7)</f>
+        <v>3.63361046343716</v>
+      </c>
+      <c r="J7" s="17">
+        <f>$C7-$F$2*$I7</f>
+        <v>6.49148453800688</v>
+      </c>
+      <c r="K7" s="17">
+        <f>$C7+$F$2*$I7</f>
+        <v>20.0085154619931</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" ht="14.5" customHeight="1">
+      <c r="A8" s="15">
+        <f>A7+1</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="15">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16">
+        <f>(B8*B$21)+(1-$B$21)*C7</f>
+        <v>12.625</v>
+      </c>
+      <c r="D8" s="14">
+        <f>ABS(B8-C8)</f>
+        <v>0.625</v>
+      </c>
+      <c r="E8" s="14">
+        <f>(B8-C8)^2</f>
+        <v>0.390625</v>
+      </c>
+      <c r="F8" s="14">
+        <f>SUM(E$4:E8)</f>
+        <v>53.203125</v>
+      </c>
+      <c r="G8" s="17">
+        <v>5</v>
+      </c>
+      <c r="H8" s="14">
+        <f>SQRT(F8/G8)</f>
+        <v>3.26199708767497</v>
+      </c>
+      <c r="I8" s="14">
+        <f>SQRT(F8/G8)</f>
+        <v>3.26199708767497</v>
+      </c>
+      <c r="J8" s="17">
+        <f>$C8-$F$2*$I8</f>
+        <v>6.55768541692456</v>
+      </c>
+      <c r="K8" s="17">
+        <f>$C8+$F$2*$I8</f>
+        <v>18.6923145830754</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" ht="14.5" customHeight="1">
+      <c r="A9" s="15">
+        <f>A8+1</f>
+        <v>6</v>
+      </c>
+      <c r="B9" s="15">
+        <v>17</v>
+      </c>
+      <c r="C9" s="16">
+        <f>(B9*B$21)+(1-$B$21)*C8</f>
+        <v>14.8125</v>
+      </c>
+      <c r="D9" s="14">
+        <f>ABS(B9-C9)</f>
+        <v>2.1875</v>
+      </c>
+      <c r="E9" s="14">
+        <f>(B9-C9)^2</f>
+        <v>4.78515625</v>
+      </c>
+      <c r="F9" s="14">
+        <f>SUM(E$4:E9)</f>
+        <v>57.98828125</v>
+      </c>
+      <c r="G9" s="17">
+        <v>6</v>
+      </c>
+      <c r="H9" s="14">
+        <f>SQRT(F9/G9)</f>
+        <v>3.10881223969327</v>
+      </c>
+      <c r="I9" s="14">
+        <f>SQRT(F9/G9)</f>
+        <v>3.10881223969327</v>
+      </c>
+      <c r="J9" s="17">
+        <f>$C9-$F$2*$I9</f>
+        <v>9.030109234170521</v>
+      </c>
+      <c r="K9" s="17">
+        <f>$C9+$F$2*$I9</f>
+        <v>20.5948907658295</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" ht="14.5" customHeight="1">
+      <c r="A10" s="15">
+        <f>A9+1</f>
+        <v>7</v>
+      </c>
+      <c r="B10" s="15">
+        <v>22</v>
+      </c>
+      <c r="C10" s="16">
+        <f>(B10*B$21)+(1-$B$21)*C9</f>
+        <v>18.40625</v>
+      </c>
+      <c r="D10" s="14">
+        <f>ABS(B10-C10)</f>
+        <v>3.59375</v>
+      </c>
+      <c r="E10" s="14">
+        <f>(B10-C10)^2</f>
+        <v>12.9150390625</v>
+      </c>
+      <c r="F10" s="14">
+        <f>SUM(E$4:E10)</f>
+        <v>70.9033203125</v>
+      </c>
+      <c r="G10" s="17">
+        <v>7</v>
+      </c>
+      <c r="H10" s="14">
+        <f>SQRT(F10/G10)</f>
+        <v>3.18261618152874</v>
+      </c>
+      <c r="I10" s="14">
+        <f>SQRT(F10/G10)</f>
+        <v>3.18261618152874</v>
+      </c>
+      <c r="J10" s="17">
+        <f>$C10-$F$2*$I10</f>
+        <v>12.4865839023565</v>
+      </c>
+      <c r="K10" s="17">
+        <f>$C10+$F$2*$I10</f>
+        <v>24.3259160976435</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" ht="14.5" customHeight="1">
+      <c r="A11" s="15">
+        <f>A10+1</f>
+        <v>8</v>
+      </c>
+      <c r="B11" s="15">
+        <v>23</v>
+      </c>
+      <c r="C11" s="16">
+        <f>(B11*B$21)+(1-$B$21)*C10</f>
+        <v>20.703125</v>
+      </c>
+      <c r="D11" s="14">
+        <f>ABS(B11-C11)</f>
+        <v>2.296875</v>
+      </c>
+      <c r="E11" s="14">
+        <f>(B11-C11)^2</f>
+        <v>5.275634765625</v>
+      </c>
+      <c r="F11" s="14">
+        <f>SUM(E$4:E11)</f>
+        <v>76.178955078125</v>
+      </c>
+      <c r="G11" s="17">
+        <v>8</v>
+      </c>
+      <c r="H11" s="14">
+        <f>SQRT(F11/G11)</f>
+        <v>3.08583366122765</v>
+      </c>
+      <c r="I11" s="14">
+        <f>SQRT(F11/G11)</f>
+        <v>3.08583366122765</v>
+      </c>
+      <c r="J11" s="17">
+        <f>$C11-$F$2*$I11</f>
+        <v>14.9634743901166</v>
+      </c>
+      <c r="K11" s="17">
+        <f>$C11+$F$2*$I11</f>
+        <v>26.4427756098834</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" ht="14.5" customHeight="1">
+      <c r="A12" s="15">
+        <f>A11+1</f>
+        <v>9</v>
+      </c>
+      <c r="B12" s="15">
+        <v>51</v>
+      </c>
+      <c r="C12" s="16">
+        <f>(B12*B$21)+(1-$B$21)*C11</f>
+        <v>35.8515625</v>
+      </c>
+      <c r="D12" s="14">
+        <f>ABS(B12-C12)</f>
+        <v>15.1484375</v>
+      </c>
+      <c r="E12" s="14">
+        <f>(B12-C12)^2</f>
+        <v>229.475158691406</v>
+      </c>
+      <c r="F12" s="14">
+        <f>SUM(E$4:E12)</f>
+        <v>305.654113769531</v>
+      </c>
+      <c r="G12" s="17">
+        <v>9</v>
+      </c>
+      <c r="H12" s="14">
+        <f>SQRT(F12/G12)</f>
+        <v>5.82765546310131</v>
+      </c>
+      <c r="I12" s="14">
+        <f>SQRT(F12/G12)</f>
+        <v>5.82765546310131</v>
+      </c>
+      <c r="J12" s="17">
+        <f>$C12-$F$2*$I12</f>
+        <v>25.0121233386316</v>
+      </c>
+      <c r="K12" s="17">
+        <f>$C12+$F$2*$I12</f>
+        <v>46.6910016613684</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" ht="14.5" customHeight="1">
+      <c r="A13" s="15">
+        <f>A12+1</f>
+        <v>10</v>
+      </c>
+      <c r="B13" s="15">
+        <v>41</v>
+      </c>
+      <c r="C13" s="16">
+        <f>(B13*B$21)+(1-$B$21)*C12</f>
+        <v>38.42578125</v>
+      </c>
+      <c r="D13" s="14">
+        <f>ABS(B13-C13)</f>
+        <v>2.57421875</v>
+      </c>
+      <c r="E13" s="14">
+        <f>(B13-C13)^2</f>
+        <v>6.62660217285156</v>
+      </c>
+      <c r="F13" s="14">
+        <f>SUM(E$4:E13)</f>
+        <v>312.280715942383</v>
+      </c>
+      <c r="G13" s="17">
+        <v>10</v>
+      </c>
+      <c r="H13" s="14">
+        <f>SQRT(F13/G13)</f>
+        <v>5.58820826332003</v>
+      </c>
+      <c r="I13" s="14">
+        <f>SQRT(F13/G13)</f>
+        <v>5.58820826332003</v>
+      </c>
+      <c r="J13" s="17">
+        <f>$C13-$F$2*$I13</f>
+        <v>28.0317138802247</v>
+      </c>
+      <c r="K13" s="17">
+        <f>$C13+$F$2*$I13</f>
+        <v>48.8198486197753</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" ht="14.5" customHeight="1">
+      <c r="A14" s="15">
+        <f>A13+1</f>
+        <v>11</v>
+      </c>
+      <c r="B14" s="15">
+        <v>56</v>
+      </c>
+      <c r="C14" s="16">
+        <f>(B14*B$21)+(1-$B$21)*C13</f>
+        <v>47.212890625</v>
+      </c>
+      <c r="D14" s="14">
+        <f>ABS(B14-C14)</f>
+        <v>8.787109375</v>
+      </c>
+      <c r="E14" s="14">
+        <f>(B14-C14)^2</f>
+        <v>77.2132911682129</v>
+      </c>
+      <c r="F14" s="14">
+        <f>SUM(E$4:E14)</f>
+        <v>389.494007110595</v>
+      </c>
+      <c r="G14" s="17">
+        <v>11</v>
+      </c>
+      <c r="H14" s="14">
+        <f>SQRT(F14/G14)</f>
+        <v>5.95050805402053</v>
+      </c>
+      <c r="I14" s="14">
+        <f>SQRT(F14/G14)</f>
+        <v>5.95050805402053</v>
+      </c>
+      <c r="J14" s="17">
+        <f>$C14-$F$2*$I14</f>
+        <v>36.1449456445218</v>
+      </c>
+      <c r="K14" s="17">
+        <f>$C14+$F$2*$I14</f>
+        <v>58.2808356054782</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" ht="14.5" customHeight="1">
+      <c r="A15" s="15">
+        <f>A14+1</f>
+        <v>12</v>
+      </c>
+      <c r="B15" s="15">
+        <v>75</v>
+      </c>
+      <c r="C15" s="16">
+        <f>(B15*B$21)+(1-$B$21)*C14</f>
+        <v>61.1064453125</v>
+      </c>
+      <c r="D15" s="14">
+        <f>ABS(B15-C15)</f>
+        <v>13.8935546875</v>
+      </c>
+      <c r="E15" s="14">
+        <f>(B15-C15)^2</f>
+        <v>193.030861854553</v>
+      </c>
+      <c r="F15" s="14">
+        <f>SUM(E$4:E15)</f>
+        <v>582.524868965148</v>
+      </c>
+      <c r="G15" s="17">
+        <v>12</v>
+      </c>
+      <c r="H15" s="14">
+        <f>SQRT(F15/G15)</f>
+        <v>6.96733371386996</v>
+      </c>
+      <c r="I15" s="14">
+        <f>SQRT(F15/G15)</f>
+        <v>6.96733371386996</v>
+      </c>
+      <c r="J15" s="17">
+        <f>$C15-$F$2*$I15</f>
+        <v>48.1472046047019</v>
+      </c>
+      <c r="K15" s="17">
+        <f>$C15+$F$2*$I15</f>
+        <v>74.0656860202981</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" ht="14.5" customHeight="1">
+      <c r="A16" s="15">
+        <f>A15+1</f>
+        <v>13</v>
+      </c>
+      <c r="B16" s="15">
+        <v>60</v>
+      </c>
+      <c r="C16" s="16">
+        <f>(B16*B$21)+(1-$B$21)*C15</f>
+        <v>60.553222656250</v>
+      </c>
+      <c r="D16" s="14">
+        <f>ABS(B16-C16)</f>
+        <v>0.553222656250</v>
+      </c>
+      <c r="E16" s="14">
+        <f>(B16-C16)^2</f>
+        <v>0.306055307388306</v>
+      </c>
+      <c r="F16" s="14">
+        <f>SUM(E$4:E16)</f>
+        <v>582.830924272537</v>
+      </c>
+      <c r="G16" s="17">
+        <v>13</v>
+      </c>
+      <c r="H16" s="14">
+        <f>SQRT(F16/G16)</f>
+        <v>6.69575597083439</v>
+      </c>
+      <c r="I16" s="14">
+        <f>SQRT(F16/G16)</f>
+        <v>6.69575597083439</v>
+      </c>
+      <c r="J16" s="17">
+        <f>$C16-$F$2*$I16</f>
+        <v>48.099116550498</v>
+      </c>
+      <c r="K16" s="17">
+        <f>$C16+$F$2*$I16</f>
+        <v>73.007328762002</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" ht="14.5" customHeight="1">
+      <c r="A17" s="15">
+        <f>A16+1</f>
+        <v>14</v>
+      </c>
+      <c r="B17" s="15">
+        <v>75</v>
+      </c>
+      <c r="C17" s="16">
+        <f>(B17*B$21)+(1-$B$21)*C16</f>
+        <v>67.776611328125</v>
+      </c>
+      <c r="D17" s="14">
+        <f>ABS(B17-C17)</f>
+        <v>7.223388671875</v>
+      </c>
+      <c r="E17" s="14">
+        <f>(B17-C17)^2</f>
+        <v>52.1773439049721</v>
+      </c>
+      <c r="F17" s="14">
+        <f>SUM(E$4:E17)</f>
+        <v>635.008268177509</v>
+      </c>
+      <c r="G17" s="17">
+        <v>14</v>
+      </c>
+      <c r="H17" s="14">
+        <f>SQRT(F17/G17)</f>
+        <v>6.73481502650597</v>
+      </c>
+      <c r="I17" s="14">
+        <f>SQRT(F17/G17)</f>
+        <v>6.73481502650597</v>
+      </c>
+      <c r="J17" s="17">
+        <f>$C17-$F$2*$I17</f>
+        <v>55.2498553788239</v>
+      </c>
+      <c r="K17" s="17">
+        <f>$C17+$F$2*$I17</f>
+        <v>80.3033672774261</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" ht="14.5" customHeight="1">
+      <c r="A18" s="18">
+        <f>A17+1</f>
+        <v>15</v>
+      </c>
+      <c r="B18" s="18">
+        <v>88</v>
+      </c>
+      <c r="C18" s="16">
+        <f>(B18*B$21)+(1-$B$21)*C17</f>
+        <v>77.8883056640625</v>
+      </c>
+      <c r="D18" s="20">
+        <f>ABS(B18-C18)</f>
+        <v>10.1116943359375</v>
+      </c>
+      <c r="E18" s="20">
+        <f>(B18-C18)^2</f>
+        <v>102.246362343431</v>
+      </c>
+      <c r="F18" s="14">
+        <f>SUM(E$4:E18)</f>
+        <v>737.2546305209401</v>
+      </c>
+      <c r="G18" s="17">
+        <v>15</v>
+      </c>
+      <c r="H18" s="14">
+        <f>SQRT(F18/G18)</f>
+        <v>7.01072811492473</v>
+      </c>
+      <c r="I18" s="14">
+        <f>SQRT(F18/G18)</f>
+        <v>7.01072811492473</v>
+      </c>
+      <c r="J18" s="17">
+        <f>$C18-$F$2*$I18</f>
+        <v>64.8483513703025</v>
+      </c>
+      <c r="K18" s="17">
+        <f>$C18+$F$2*$I18</f>
+        <v>90.9282599578225</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" ht="14.5" customHeight="1">
+      <c r="A19" s="12">
+        <v>16</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="16">
+        <f>(B19*B$21)+(1-$B$21)*C18</f>
+        <v>38.9441528320313</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" ht="14.5" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" t="s" s="22">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" t="s" s="22">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s" s="22">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" ht="14.5" customHeight="1">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26">
+        <f>AVERAGE(D4:D18)</f>
+        <v>5.51748221261161</v>
+      </c>
+      <c r="E21" s="27">
+        <f>AVERAGE(E4:E18)</f>
+        <v>52.661045037210</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="8.85156" style="28" customWidth="1"/>
-    <col min="4" max="4" width="16" style="28" customWidth="1"/>
-    <col min="5" max="8" width="8.85156" style="28" customWidth="1"/>
-    <col min="9" max="9" width="11.6875" style="28" customWidth="1"/>
-    <col min="10" max="10" width="17" style="28" customWidth="1"/>
-    <col min="11" max="11" width="10.3516" style="28" customWidth="1"/>
-    <col min="12" max="12" width="19.1406" style="28" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="28" customWidth="1"/>
-    <col min="14" max="27" width="8.85156" style="28" customWidth="1"/>
-    <col min="28" max="256" width="8.85156" style="28" customWidth="1"/>
+    <col min="1" max="3" width="8.85156" style="29" customWidth="1"/>
+    <col min="4" max="4" width="16" style="29" customWidth="1"/>
+    <col min="5" max="8" width="8.85156" style="29" customWidth="1"/>
+    <col min="9" max="9" width="11.6875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17" style="29" customWidth="1"/>
+    <col min="11" max="11" width="10.3516" style="29" customWidth="1"/>
+    <col min="12" max="12" width="19.1406" style="29" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="29" customWidth="1"/>
+    <col min="14" max="27" width="8.85156" style="29" customWidth="1"/>
+    <col min="28" max="16384" width="8.85156" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.5" customHeight="1">
@@ -4248,9 +5937,9 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -4267,11 +5956,11 @@
       <c r="B4" s="12">
         <v>3</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="31">
         <f>B4</f>
         <v>3</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="31">
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -4286,8 +5975,8 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
       <c r="S4" s="21"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
@@ -4306,11 +5995,11 @@
       <c r="B5" s="15">
         <v>5</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="33">
         <f>B$21*B5+(1-B$21)*(C4+D4)</f>
         <v>4.8</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="33">
         <f>C$21*(C5-C4)+(1-C$21)*D4</f>
         <v>1.62</v>
       </c>
@@ -4330,7 +6019,7 @@
         <f>SUM(G$4:G5)</f>
         <v>4</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="34">
         <v>2</v>
       </c>
       <c r="J5" s="14">
@@ -4341,19 +6030,19 @@
         <f>SQRT(H5/I5)</f>
         <v>1.4142135623731</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="34">
         <f>$E5-$J$2*$K5</f>
         <v>0.22819235130064</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="34">
         <f>$E5+$J$2*$K5</f>
         <v>5.77180764869936</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
@@ -4372,11 +6061,11 @@
       <c r="B6" s="15">
         <v>9</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="33">
         <f>B$21*B6+(1-B$21)*(C5+D5)</f>
         <v>8.742000000000001</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="33">
         <f>C$21*(C6-C5)+(1-C$21)*D5</f>
         <v>3.7098</v>
       </c>
@@ -4396,7 +6085,7 @@
         <f>SUM(G$4:G6)</f>
         <v>10.6564</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="34">
         <v>3</v>
       </c>
       <c r="J6" s="14">
@@ -4407,19 +6096,19 @@
         <f>SQRT(H6/I6)</f>
         <v>1.88471041100041</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="34">
         <f>$E6-$J$2*$K6</f>
         <v>2.72603547315152</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="34">
         <f>$E6+$J$2*$K6</f>
         <v>10.1139645268485</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -4438,11 +6127,11 @@
       <c r="B7" s="15">
         <v>20</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="33">
         <f>B$21*B7+(1-B$21)*(C6+D6)</f>
         <v>19.24518</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="33">
         <f>C$21*(C7-C6)+(1-C$21)*D6</f>
         <v>9.823842000000001</v>
       </c>
@@ -4462,7 +6151,7 @@
         <f>SUM(G$4:G7)</f>
         <v>67.63172324</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="34">
         <v>4</v>
       </c>
       <c r="J7" s="14">
@@ -4473,19 +6162,19 @@
         <f>SQRT(H7/I7)</f>
         <v>4.11192543828314</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="34">
         <f>$E7-$J$2*$K7</f>
         <v>4.39257423385099</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="34">
         <f>$E7+$J$2*$K7</f>
         <v>20.511025766149</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -4504,11 +6193,11 @@
       <c r="B8" s="15">
         <v>12</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="33">
         <f>B$21*B8+(1-B$21)*(C7+D7)</f>
         <v>13.7069022</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="33">
         <f>C$21*(C8-C7)+(1-C$21)*D7</f>
         <v>-4.00206582</v>
       </c>
@@ -4528,7 +6217,7 @@
         <f>SUM(G$4:G8)</f>
         <v>358.983235276484</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="34">
         <v>5</v>
       </c>
       <c r="J8" s="14">
@@ -4539,19 +6228,19 @@
         <f>SQRT(H8/I8)</f>
         <v>8.473290214273129</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="34">
         <f>$E8-$J$2*$K8</f>
         <v>12.461678349469</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="34">
         <f>$E8+$J$2*$K8</f>
         <v>45.676365650531</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -4570,11 +6259,11 @@
       <c r="B9" s="15">
         <v>17</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="33">
         <f>B$21*B9+(1-B$21)*(C8+D8)</f>
         <v>16.270483638</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="33">
         <f>C$21*(C9-C8)+(1-C$21)*D8</f>
         <v>1.9070167122</v>
       </c>
@@ -4594,7 +6283,7 @@
         <f>SUM(G$4:G9)</f>
         <v>412.202647519056</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="34">
         <v>6</v>
       </c>
       <c r="J9" s="14">
@@ -4605,19 +6294,19 @@
         <f>SQRT(H9/I9)</f>
         <v>8.2885729322469</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="34">
         <f>$E9-$J$2*$K9</f>
         <v>-6.54046805043744</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="34">
         <f>$E9+$J$2*$K9</f>
         <v>25.9501408104374</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -4636,11 +6325,11 @@
       <c r="B10" s="15">
         <v>22</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="33">
         <f>B$21*B10+(1-B$21)*(C9+D9)</f>
         <v>21.617750035020</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="33">
         <f>C$21*(C10-C9)+(1-C$21)*D9</f>
         <v>5.003241428538</v>
       </c>
@@ -4660,7 +6349,7 @@
         <f>SUM(G$4:G10)</f>
         <v>426.814151091777</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="34">
         <v>7</v>
       </c>
       <c r="J10" s="14">
@@ -4671,19 +6360,19 @@
         <f>SQRT(H10/I10)</f>
         <v>7.80854981132657</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="34">
         <f>$E10-$J$2*$K10</f>
         <v>2.87302394851292</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="34">
         <f>$E10+$J$2*$K10</f>
         <v>33.4819767518871</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -4702,11 +6391,11 @@
       <c r="B11" s="15">
         <v>23</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="33">
         <f>B$21*B11+(1-B$21)*(C10+D10)</f>
         <v>23.3620991463558</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="33">
         <f>C$21*(C11-C10)+(1-C$21)*D10</f>
         <v>2.07023834305602</v>
       </c>
@@ -4726,7 +6415,7 @@
         <f>SUM(G$4:G11)</f>
         <v>439.925730270937</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="34">
         <v>8</v>
       </c>
       <c r="J11" s="14">
@@ -4737,19 +6426,19 @@
         <f>SQRT(H11/I11)</f>
         <v>7.41557255266693</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="34">
         <f>$E11-$J$2*$K11</f>
         <v>12.0867363355871</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="34">
         <f>$E11+$J$2*$K11</f>
         <v>41.1552465915289</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -4768,11 +6457,11 @@
       <c r="B12" s="15">
         <v>51</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="33">
         <f>B$21*B12+(1-B$21)*(C11+D11)</f>
         <v>48.4432337489412</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="33">
         <f>C$21*(C12-C11)+(1-C$21)*D11</f>
         <v>22.7800449766325</v>
       </c>
@@ -4792,7 +6481,7 @@
         <f>SUM(G$4:G12)</f>
         <v>1093.631096526270</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="34">
         <v>9</v>
       </c>
       <c r="J12" s="14">
@@ -4803,19 +6492,19 @@
         <f>SQRT(H12/I12)</f>
         <v>11.0233645626323</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="34">
         <f>$E12-$J$2*$K12</f>
         <v>3.82693995819741</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="34">
         <f>$E12+$J$2*$K12</f>
         <v>47.0377350206262</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -4834,11 +6523,11 @@
       <c r="B13" s="15">
         <v>41</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="33">
         <f>B$21*B13+(1-B$21)*(C12+D12)</f>
         <v>44.0223278725574</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="33">
         <f>C$21*(C13-C12)+(1-C$21)*D12</f>
         <v>-1.70081079108217</v>
       </c>
@@ -4858,7 +6547,7 @@
         <f>SUM(G$4:G13)</f>
         <v>2007.077673449990</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="34">
         <v>10</v>
       </c>
       <c r="J13" s="14">
@@ -4869,19 +6558,19 @@
         <f>SQRT(H13/I13)</f>
         <v>14.1671368788827</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="34">
         <f>$E13-$J$2*$K13</f>
         <v>43.4562006789145</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="34">
         <f>$E13+$J$2*$K13</f>
         <v>98.9903567722329</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -4900,11 +6589,11 @@
       <c r="B14" s="15">
         <v>56</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="33">
         <f>B$21*B14+(1-B$21)*(C13+D13)</f>
         <v>54.6321517081475</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="33">
         <f>C$21*(C14-C13)+(1-C$21)*D13</f>
         <v>9.378760372922869</v>
       </c>
@@ -4924,7 +6613,7 @@
         <f>SUM(G$4:G14)</f>
         <v>2194.178568402360</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="34">
         <v>11</v>
       </c>
       <c r="J14" s="14">
@@ -4935,19 +6624,19 @@
         <f>SQRT(H14/I14)</f>
         <v>14.1234124398344</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="34">
         <f>$E14-$J$2*$K14</f>
         <v>14.6401373605949</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="34">
         <f>$E14+$J$2*$K14</f>
         <v>70.00289680235549</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -4966,11 +6655,11 @@
       <c r="B15" s="15">
         <v>75</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="33">
         <f>B$21*B15+(1-B$21)*(C14+D14)</f>
         <v>73.901091208107</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="33">
         <f>C$21*(C15-C14)+(1-C$21)*D14</f>
         <v>18.2799215872558</v>
       </c>
@@ -4990,7 +6679,7 @@
         <f>SUM(G$4:G15)</f>
         <v>2314.938621692330</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="34">
         <v>12</v>
       </c>
       <c r="J15" s="14">
@@ -5001,19 +6690,19 @@
         <f>SQRT(H15/I15)</f>
         <v>13.8892603045552</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="34">
         <f>$E15-$J$2*$K15</f>
         <v>36.7884621122404</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="34">
         <f>$E15+$J$2*$K15</f>
         <v>91.23336204990041</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -5032,11 +6721,11 @@
       <c r="B16" s="15">
         <v>60</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="33">
         <f>B$21*B16+(1-B$21)*(C15+D15)</f>
         <v>63.2181012795363</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="33">
         <f>C$21*(C16-C15)+(1-C$21)*D15</f>
         <v>-7.78669877698805</v>
       </c>
@@ -5056,7 +6745,7 @@
         <f>SUM(G$4:G16)</f>
         <v>3350.556206227630</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="34">
         <v>13</v>
       </c>
       <c r="J16" s="14">
@@ -5067,19 +6756,19 @@
         <f>SQRT(H16/I16)</f>
         <v>16.0541300850199</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="34">
         <f>$E16-$J$2*$K16</f>
         <v>60.7154960256029</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="34">
         <f>$E16+$J$2*$K16</f>
         <v>123.646529565123</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -5098,11 +6787,11 @@
       <c r="B17" s="15">
         <v>75</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="33">
         <f>B$21*B17+(1-B$21)*(C16+D16)</f>
         <v>73.04314025025479</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="33">
         <f>C$21*(C17-C16)+(1-C$21)*D16</f>
         <v>8.06386519594785</v>
       </c>
@@ -5122,30 +6811,30 @@
         <f>SUM(G$4:G17)</f>
         <v>3733.4862142449</v>
       </c>
-      <c r="I17" s="33">
-        <v>1415</v>
+      <c r="I17" s="34">
+        <v>14</v>
       </c>
       <c r="J17" s="14">
         <f>SQRT(H17/I17)</f>
-        <v>1.62434791792798</v>
+        <v>16.3302659724751</v>
       </c>
       <c r="K17" s="14">
         <f>SQRT(H17/I17)</f>
-        <v>1.62434791792798</v>
-      </c>
-      <c r="L17" s="33">
+        <v>16.3302659724751</v>
+      </c>
+      <c r="L17" s="34">
         <f>$E17-$J$2*$K17</f>
-        <v>52.2477390850468</v>
-      </c>
-      <c r="M17" s="33">
+        <v>23.4246693385372</v>
+      </c>
+      <c r="M17" s="34">
         <f>$E17+$J$2*$K17</f>
-        <v>58.6150659200498</v>
+        <v>87.4381356665594</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -5164,11 +6853,11 @@
       <c r="B18" s="18">
         <v>88</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="36">
         <f>B$21*B18+(1-B$21)*(C17+D17)</f>
         <v>87.3107005446203</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="36">
         <f>C$21*(C18-C17)+(1-C$21)*D17</f>
         <v>13.6471907845237</v>
       </c>
@@ -5188,30 +6877,30 @@
         <f>SUM(G$4:G18)</f>
         <v>3780.999588163580</v>
       </c>
-      <c r="I18" s="33">
-        <v>13</v>
+      <c r="I18" s="34">
+        <v>15</v>
       </c>
       <c r="J18" s="14">
         <f>SQRT(H18/I18)</f>
-        <v>17.0542112736541</v>
+        <v>15.876606665497</v>
       </c>
       <c r="K18" s="14">
         <f>SQRT(H18/I18)</f>
-        <v>17.0542112736541</v>
-      </c>
-      <c r="L18" s="33">
+        <v>15.876606665497</v>
+      </c>
+      <c r="L18" s="34">
         <f>$E18-$J$2*$K18</f>
-        <v>47.6813655651038</v>
-      </c>
-      <c r="M18" s="33">
+        <v>49.9894281851201</v>
+      </c>
+      <c r="M18" s="34">
         <f>$E18+$J$2*$K18</f>
-        <v>114.532645327302</v>
+        <v>112.224582707285</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
       <c r="S18" s="7"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -5239,7 +6928,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="31"/>
+      <c r="Q19" s="32"/>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
       <c r="T19" s="3"/>
@@ -5278,7 +6967,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="34"/>
+      <c r="Q20" s="35"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -5292,10 +6981,10 @@
     </row>
     <row r="21" ht="14.5" customHeight="1">
       <c r="A21" s="23"/>
-      <c r="B21" s="37">
+      <c r="B21" s="38">
         <v>0.9</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="39">
         <v>0.9</v>
       </c>
       <c r="D21" s="25"/>
@@ -5303,7 +6992,7 @@
         <f>AVERAGE(F4:F18)</f>
         <v>13.0740709752562</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="40">
         <f>AVERAGE(G4:G18)</f>
         <v>270.071399154542</v>
       </c>
@@ -5320,7 +7009,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="34"/>
+      <c r="Q21" s="35"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -5349,7 +7038,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="34"/>
+      <c r="Q22" s="35"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -5378,7 +7067,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="36"/>
+      <c r="Q23" s="37"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="3"/>
